--- a/output/Table1.xlsx
+++ b/output/Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Reinfections_and_cross_protection_1918_influenza\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232B1074-16DB-4ED9-940A-D2844616644E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192992D0-BDE9-4752-9992-26D3A3369BAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17328" xr2:uid="{32B1BB74-3AD3-4DE3-AB21-5204A2169F34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Men</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">    unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Median age</t>
   </si>
 </sst>
 </file>
@@ -602,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515CBF80-7F84-4DA6-B646-0E5E206E836B}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -696,7 +699,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -715,90 +718,96 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="9">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
+        <v>28.5</v>
       </c>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>207</v>
-      </c>
-      <c r="C8" s="9">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9">
-        <v>131</v>
-      </c>
-      <c r="F8" s="9">
-        <v>61.8</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>338</v>
-      </c>
-      <c r="I8" s="9">
-        <v>41.2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="9">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C9" s="9">
-        <v>30.6</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="F9" s="9">
-        <v>11.8</v>
+        <v>61.8</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
+        <v>338</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>186</v>
+      </c>
+      <c r="C10" s="9">
+        <v>30.6</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9">
         <v>211</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>25.7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -809,95 +818,95 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
-        <v>288</v>
-      </c>
-      <c r="C12" s="9">
-        <v>47.4</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9">
-        <v>124</v>
-      </c>
-      <c r="F12" s="9">
-        <v>58.5</v>
-      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="9">
-        <v>412</v>
-      </c>
-      <c r="I12" s="9">
-        <v>50.2</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="C13" s="9">
-        <v>80.2</v>
+        <v>47.4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F13" s="9">
-        <v>92.7</v>
+        <v>58.5</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="I13" s="9">
-        <v>84</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="C14" s="9">
-        <v>19.8</v>
+        <v>80.2</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F14" s="9">
-        <v>7.3</v>
+        <v>92.7</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
+        <v>346</v>
+      </c>
+      <c r="I14" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9">
         <v>66</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -908,219 +917,219 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9">
-        <v>166</v>
-      </c>
-      <c r="C17" s="9">
-        <v>57.6</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9">
-        <v>72</v>
-      </c>
-      <c r="F17" s="9">
-        <v>58.1</v>
-      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="9">
-        <v>238</v>
-      </c>
-      <c r="I17" s="9">
-        <v>57.8</v>
-      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="9">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9">
-        <v>41.3</v>
+        <v>57.6</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F18" s="9">
-        <v>41.1</v>
+        <v>58.1</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="I18" s="9">
-        <v>41.3</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="9">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
+        <v>41.3</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F19" s="9">
-        <v>0.8</v>
+        <v>41.1</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="9">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="I19" s="9">
-        <v>1</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C20" s="9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="F20" s="9">
-        <v>100</v>
+        <v>0.8</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="9">
+        <v>288</v>
+      </c>
+      <c r="C21" s="9">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9">
+        <v>124</v>
+      </c>
+      <c r="F21" s="9">
+        <v>100</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9">
         <v>412</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="9">
-        <v>44</v>
-      </c>
-      <c r="C23" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9">
-        <v>19</v>
-      </c>
-      <c r="F23" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9">
-        <v>63</v>
-      </c>
-      <c r="I23" s="9">
-        <v>15.3</v>
-      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9">
-        <v>72.7</v>
+        <v>15.3</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="9">
         <v>19</v>
       </c>
       <c r="F24" s="9">
-        <v>100</v>
+        <v>15.3</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9">
-        <v>81</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9">
-        <v>27.3</v>
+        <v>72.7</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F25" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="9">
+        <v>51</v>
+      </c>
+      <c r="I25" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9">
         <v>12</v>
       </c>
-      <c r="I25" s="9">
+      <c r="C26" s="9">
+        <v>27.3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9">
+        <v>12</v>
+      </c>
+      <c r="I26" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1131,235 +1140,225 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="9">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9">
-        <v>81.8</v>
-      </c>
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9">
-        <v>14</v>
-      </c>
-      <c r="F28" s="9">
-        <v>73.7</v>
-      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="9">
-        <v>50</v>
-      </c>
-      <c r="I28" s="9">
-        <v>86.2</v>
-      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="9">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9">
-        <v>13.6</v>
+        <v>81.8</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F29" s="9">
-        <v>10.5</v>
+        <v>73.7</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9">
-        <v>13.8</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B30" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C30" s="9">
-        <v>4.5999999999999996</v>
+        <v>13.6</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="9">
-        <v>15.8</v>
+        <v>10.5</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9">
+        <v>8</v>
+      </c>
+      <c r="I30" s="9">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9">
         <v>5</v>
       </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="9">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B33" s="9">
         <v>11</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>1.8</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9">
+      <c r="D33" s="8"/>
+      <c r="E33" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>0.9</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9">
+      <c r="G33" s="8"/>
+      <c r="H33" s="9">
         <v>13</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I33" s="9">
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B36" s="9">
         <v>338</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="9">
         <v>100</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9">
+      <c r="D36" s="8"/>
+      <c r="E36" s="9">
         <v>146</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>100</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9">
+      <c r="G36" s="8"/>
+      <c r="H36" s="9">
         <v>484</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I36" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="9">
-        <v>151</v>
-      </c>
-      <c r="C37" s="9">
-        <v>44.7</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9">
-        <v>69</v>
-      </c>
-      <c r="F37" s="9">
-        <v>47.3</v>
-      </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9">
-        <v>220</v>
-      </c>
-      <c r="I37" s="9">
-        <v>45.5</v>
-      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38" s="9">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="C38" s="9">
-        <v>25.2</v>
+        <v>44.7</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="9">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F38" s="9">
-        <v>7.2</v>
+        <v>47.3</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="9">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="I38" s="9">
-        <v>19.5</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B39" s="9">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C39" s="9">
-        <v>5.3</v>
+        <v>25.2</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="9">
@@ -1370,210 +1369,235 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="9">
+        <v>43</v>
+      </c>
+      <c r="I39" s="9">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9">
+        <v>5</v>
+      </c>
+      <c r="F40" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9">
         <v>13</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>5.9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="9">
-        <v>159</v>
-      </c>
-      <c r="C41" s="9">
-        <v>47</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="9">
-        <v>65</v>
-      </c>
-      <c r="F41" s="9">
-        <v>44.5</v>
-      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="9">
-        <v>224</v>
-      </c>
-      <c r="I41" s="9">
-        <v>46.3</v>
-      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" s="9">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="C42" s="9">
-        <v>15.7</v>
+        <v>47</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="9">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F42" s="9">
-        <v>6.2</v>
+        <v>44.5</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="9">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I42" s="9">
-        <v>12.9</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B43" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C43" s="9">
-        <v>21.4</v>
+        <v>15.7</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F43" s="9">
-        <v>23</v>
+        <v>6.2</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="9">
+        <v>29</v>
+      </c>
+      <c r="I43" s="9">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="9">
+        <v>34</v>
+      </c>
+      <c r="C44" s="9">
+        <v>21.4</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9">
+        <v>15</v>
+      </c>
+      <c r="F44" s="9">
+        <v>23</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9">
         <v>49</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="9">
         <v>21.9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="9">
-        <v>17</v>
-      </c>
-      <c r="C45" s="9">
-        <v>5</v>
-      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="9">
-        <v>5</v>
-      </c>
-      <c r="F45" s="9">
-        <v>3.4</v>
-      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="9">
-        <v>22</v>
-      </c>
-      <c r="I45" s="9">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B46" s="9">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C46" s="9">
-        <v>17.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="9">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9">
-        <v>13.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B47" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" s="9">
-        <v>35.299999999999997</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="9">
+        <v>3</v>
+      </c>
+      <c r="I47" s="9">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="9">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9">
+        <v>20</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9">
         <v>7</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I48" s="9">
         <v>31.8</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B49" s="14">
         <v>11</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C49" s="14">
         <v>3.3</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="14">
+      <c r="D49" s="15"/>
+      <c r="E49" s="14">
         <v>7</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F49" s="14">
         <v>4.8</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="14">
+      <c r="G49" s="15"/>
+      <c r="H49" s="14">
         <v>18</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I49" s="14">
         <v>3.7</v>
       </c>
     </row>

--- a/output/Table1.xlsx
+++ b/output/Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Reinfections_and_cross_protection_1918_influenza\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192992D0-BDE9-4752-9992-26D3A3369BAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6221BF1B-53BC-4817-A453-600E3EC68C25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17328" xr2:uid="{32B1BB74-3AD3-4DE3-AB21-5204A2169F34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17325" xr2:uid="{32B1BB74-3AD3-4DE3-AB21-5204A2169F34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -607,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515CBF80-7F84-4DA6-B646-0E5E206E836B}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -633,7 +633,7 @@
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,7 +675,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -686,7 +686,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
@@ -737,7 +737,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -781,7 +781,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -806,7 +806,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -817,7 +817,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -855,7 +855,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -905,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -916,7 +916,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -954,7 +954,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -979,7 +979,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1040,7 +1040,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1139,7 +1139,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1238,7 +1238,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1274,7 +1274,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>

--- a/output/Table1.xlsx
+++ b/output/Table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Reinfections_and_cross_protection_1918_influenza\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6221BF1B-53BC-4817-A453-600E3EC68C25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF5163-B22D-412D-A75D-C48E62279FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17325" xr2:uid="{32B1BB74-3AD3-4DE3-AB21-5204A2169F34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17328" xr2:uid="{32B1BB74-3AD3-4DE3-AB21-5204A2169F34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -607,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515CBF80-7F84-4DA6-B646-0E5E206E836B}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -633,7 +633,7 @@
       </c>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -675,7 +675,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -686,7 +686,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
@@ -737,7 +737,7 @@
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -756,7 +756,7 @@
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -781,7 +781,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -806,7 +806,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -817,7 +817,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -855,7 +855,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
@@ -905,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -916,7 +916,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
@@ -954,7 +954,7 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -979,7 +979,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1040,7 +1040,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1139,7 +1139,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1238,7 +1238,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1274,7 +1274,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
